--- a/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_ TC_Tìmkiếmnhânsự .xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_ TC_Tìmkiếmnhânsự .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\module1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA343DC-A595-4C4B-AD01-2B64253C622C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC908C45-237E-4B42-88E9-71294133A77C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" activeTab="3" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Test Cases" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="7" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="91">
   <si>
     <t>Author</t>
   </si>
@@ -281,19 +281,7 @@
     <t>TR-BDS-TKNS-5</t>
   </si>
   <si>
-    <t>TR-BDS-TKNS-6</t>
-  </si>
-  <si>
-    <t>Kết quả tìm kiếm được hiển thị phải phù hợp với từ khóa tìm kiếm</t>
-  </si>
-  <si>
     <t>Khi người dùng bắt đầu nhập từ trong hộp văn bản, nó sẽ gợi ý các từ khớp với từ khóa đã nhập</t>
-  </si>
-  <si>
-    <t>Sau khi nhấp vào trường Tìm kiếm - lịch sử tìm kiếm sẽ được hiển thị (từ khóa tìm kiếm mới nhất)</t>
-  </si>
-  <si>
-    <t>Người dùng sẽ có thể tìm kiếm khi anh ta nhập từ khóa và nhấn nút 'Enter' trên bàn phím</t>
   </si>
   <si>
     <t xml:space="preserve">Hiển thị thanh tìm kiếm phía trên danh sách </t>
@@ -341,21 +329,6 @@
     <t>Hiển thị gợi ý tên nhân sự có họ tên bắt đầu là Ng</t>
   </si>
   <si>
-    <t xml:space="preserve">Nhấp vào thanh tìm kiếm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiển thị từ khóa được tìm kiếm mới nhất </t>
-  </si>
-  <si>
-    <t>Kiểm tra sau khi nhấp vào trường Tìm kiếm - lịch sử tìm kiếm sẽ được hiển thị</t>
-  </si>
-  <si>
-    <t>Kiểm tra Người dùng sẽ có thể tìm kiếm khi anh ta nhập từ khóa và nhấn nút 'Enter' trên bàn phím</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhấn ENTER </t>
-  </si>
-  <si>
     <t xml:space="preserve">Hiển thị thông báo không tìm thấy nhân sự cần tìm  </t>
   </si>
   <si>
@@ -365,13 +338,10 @@
     <t xml:space="preserve">#$^$^$%@@$ </t>
   </si>
   <si>
-    <t>TR-BDS-TKNS-7</t>
-  </si>
-  <si>
-    <t>TR-BDS-TKNS-8</t>
-  </si>
-  <si>
-    <t>TR-BDS-TKNS-9</t>
+    <t>pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kết quả tìm kiếm được hiển thị phải phù hợp với từ khóa tìm kiếm </t>
   </si>
 </sst>
 </file>
@@ -498,7 +468,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,6 +493,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="40">
     <border>
@@ -1147,9 +1123,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1171,8 +1144,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1198,27 +1195,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1279,10 +1255,34 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1291,56 +1291,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1666,7 +1642,7 @@
   <dimension ref="B1:E20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1681,31 +1657,31 @@
   <sheetData>
     <row r="1" spans="2:5" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
     </row>
     <row r="3" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="53"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
@@ -1726,7 +1702,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="12">
-        <v>43811</v>
+        <v>43832</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>55</v>
@@ -1739,7 +1715,9 @@
       <c r="B8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="12">
+        <v>43896</v>
+      </c>
       <c r="D8" s="10" t="s">
         <v>55</v>
       </c>
@@ -1778,21 +1756,21 @@
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="63"/>
     </row>
     <row r="13" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="53"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
@@ -1801,54 +1779,54 @@
       <c r="C15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="62"/>
+      <c r="E15" s="54"/>
     </row>
     <row r="16" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="64"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
     </row>
     <row r="17" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="64"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="64"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
     </row>
     <row r="19" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="64"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
     </row>
     <row r="20" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1873,10 +1851,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C634FC7-125A-4085-B576-D3E7F0759EE5}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2003,7 +1981,7 @@
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="16" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>36</v>
@@ -2023,18 +2001,18 @@
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="43" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="33"/>
       <c r="H10" s="17"/>
     </row>
-    <row r="11" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27">
         <v>3</v>
       </c>
@@ -2042,64 +2020,52 @@
         <v>68</v>
       </c>
       <c r="C11" s="34"/>
-      <c r="D11" s="16" t="s">
-        <v>74</v>
-      </c>
+      <c r="D11" s="16"/>
       <c r="E11" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="43" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="33"/>
       <c r="H11" s="17"/>
     </row>
-    <row r="12" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="34" t="s">
+        <v>45</v>
+      </c>
       <c r="D12" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="44" t="s">
-        <v>17</v>
+        <v>35</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>16</v>
       </c>
       <c r="G12" s="33"/>
       <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="27">
-        <v>5</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="44" t="s">
-        <v>16</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="33"/>
       <c r="H13" s="17"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27">
-        <v>6</v>
-      </c>
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
       <c r="B14" s="38"/>
       <c r="C14" s="34"/>
       <c r="D14" s="35"/>
@@ -2107,16 +2073,6 @@
       <c r="F14" s="18"/>
       <c r="G14" s="33"/>
       <c r="H14" s="17"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2142,19 +2098,19 @@
           <x14:formula1>
             <xm:f>Sheet2!$G$3:$G$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E9:E15</xm:sqref>
+          <xm:sqref>E9:E14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0669D02E-8B0A-448F-BAD2-6D1A700CE8C7}">
           <x14:formula1>
             <xm:f>Sheet2!$D$3:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>G9:G15</xm:sqref>
+          <xm:sqref>G9:G14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C345C894-9E54-44FF-8227-82A9A55946F3}">
           <x14:formula1>
             <xm:f>Sheet2!$A$3:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F9:F15</xm:sqref>
+          <xm:sqref>F9:F14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2165,11 +2121,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2348A1D5-4253-4771-A133-25F9BE04457B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41:A43"/>
+      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2186,26 +2142,26 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+    <row r="1" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-    </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+    </row>
+    <row r="2" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
@@ -2231,797 +2187,459 @@
       <c r="I3" s="24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="98" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-    </row>
-    <row r="5" spans="1:9" s="47" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="85">
+      <c r="J3" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="97" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="105"/>
+    </row>
+    <row r="5" spans="1:10" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="87">
         <v>1</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="92" t="s">
+      <c r="D5" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="47">
         <v>1</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="44" t="s">
         <v>56</v>
       </c>
       <c r="H5" s="39"/>
       <c r="I5" s="39" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="86"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="48">
+      <c r="J5" s="102" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="88"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="47">
         <v>2</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44" t="s">
+      <c r="H6" s="43"/>
+      <c r="I6" s="43" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="86"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="48">
+      <c r="J6" s="103"/>
+    </row>
+    <row r="7" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="88"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="47">
         <v>3</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="47" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="96"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="48">
+      <c r="H7" s="43"/>
+      <c r="I7" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="103"/>
+    </row>
+    <row r="8" spans="1:10" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="89"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="47">
         <v>4</v>
       </c>
-      <c r="G8" s="100" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="47" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="85">
+      <c r="G8" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="104"/>
+    </row>
+    <row r="9" spans="1:10" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="87">
         <v>2</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="89" t="s">
+      <c r="B9" s="85"/>
+      <c r="C9" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="92" t="s">
+      <c r="D9" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="47">
         <v>1</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="44" t="s">
         <v>56</v>
       </c>
       <c r="H9" s="39"/>
       <c r="I9" s="39" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="86"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="48">
+      <c r="J9" s="102" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="88"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="47">
         <v>2</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44" t="s">
+      <c r="H10" s="43"/>
+      <c r="I10" s="43" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="86"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="48">
+      <c r="J10" s="103"/>
+    </row>
+    <row r="11" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="88"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="47">
         <v>3</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="47" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="96"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="48">
+      <c r="H11" s="43"/>
+      <c r="I11" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="103"/>
+    </row>
+    <row r="12" spans="1:10" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="89"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="47">
         <v>4</v>
       </c>
-      <c r="G12" s="100" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="47" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="85">
+      <c r="G12" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="104"/>
+    </row>
+    <row r="13" spans="1:10" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="87">
         <v>3</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="89" t="s">
+      <c r="B13" s="85"/>
+      <c r="C13" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="92" t="s">
+      <c r="D13" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="47">
         <v>1</v>
       </c>
-      <c r="G13" s="45" t="s">
+      <c r="G13" s="44" t="s">
         <v>56</v>
       </c>
       <c r="H13" s="39"/>
       <c r="I13" s="39" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="86"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="48">
+      <c r="J13" s="102" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="88"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="47">
         <v>2</v>
       </c>
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44" t="s">
+      <c r="H14" s="43"/>
+      <c r="I14" s="43" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="86"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="48">
+      <c r="J14" s="103"/>
+    </row>
+    <row r="15" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="88"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="47">
         <v>3</v>
       </c>
-      <c r="G15" s="46" t="s">
+      <c r="G15" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="47" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="96"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="48">
+      <c r="H15" s="43"/>
+      <c r="I15" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" s="103"/>
+    </row>
+    <row r="16" spans="1:10" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="89"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="47">
         <v>4</v>
       </c>
-      <c r="G16" s="100" t="s">
-        <v>96</v>
-      </c>
-      <c r="H16" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="I16" s="43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="47" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="85">
+      <c r="G16" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" s="104"/>
+    </row>
+    <row r="17" spans="1:10" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="87">
         <v>4</v>
       </c>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="89" t="s">
+      <c r="C17" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="92" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="92" t="s">
+      <c r="D17" s="91" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="47">
         <v>1</v>
       </c>
-      <c r="G17" s="45" t="s">
+      <c r="G17" s="44" t="s">
         <v>56</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="39" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="86"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="48">
+      <c r="J17" s="102" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="88"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="47">
         <v>2</v>
       </c>
-      <c r="G18" s="46" t="s">
+      <c r="G18" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44" t="s">
+      <c r="H18" s="43"/>
+      <c r="I18" s="43" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="86"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="48">
+      <c r="J18" s="103"/>
+    </row>
+    <row r="19" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="88"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="47">
         <v>3</v>
       </c>
-      <c r="G19" s="46" t="s">
+      <c r="G19" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44" t="s">
+      <c r="H19" s="43"/>
+      <c r="I19" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" s="103"/>
+    </row>
+    <row r="20" spans="1:10" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="89"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="47">
+        <v>4</v>
+      </c>
+      <c r="G20" s="48" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" s="47" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="96"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="48">
-        <v>4</v>
-      </c>
-      <c r="G20" s="100" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="I20" s="43" t="s">
+      <c r="H20" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" s="104"/>
+    </row>
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="87">
+        <v>9</v>
+      </c>
+      <c r="B22" s="95" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="47">
+        <v>1</v>
+      </c>
+      <c r="G22" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" s="102" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="47" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="85">
-        <v>5</v>
-      </c>
-      <c r="B21" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="89" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="92" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="48">
-        <v>1</v>
-      </c>
-      <c r="G21" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="86"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="48">
+    <row r="23" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="88"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="47">
         <v>2</v>
       </c>
-      <c r="G22" s="46" t="s">
+      <c r="G23" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44" t="s">
+      <c r="H23" s="43"/>
+      <c r="I23" s="43" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="48">
-        <v>3</v>
-      </c>
-      <c r="G23" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="47" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="97"/>
+      <c r="J23" s="103"/>
+    </row>
+    <row r="24" spans="1:10" s="46" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="89"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="86"/>
       <c r="D24" s="93"/>
       <c r="E24" s="93"/>
-      <c r="F24" s="42">
-        <v>4</v>
-      </c>
-      <c r="G24" s="100" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="47" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="103">
-        <v>6</v>
-      </c>
-      <c r="B25" s="103" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="104" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="104" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="41">
-        <v>1</v>
-      </c>
-      <c r="G25" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="103"/>
-      <c r="B26" s="103"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="41">
-        <v>2</v>
-      </c>
-      <c r="G26" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="103"/>
-      <c r="B27" s="103"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="41">
+      <c r="F24" s="41">
         <v>3</v>
       </c>
-      <c r="G27" s="49" t="s">
+      <c r="G24" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="47" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="103"/>
-      <c r="B28" s="103"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="41">
-        <v>4</v>
-      </c>
-      <c r="G28" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="H28" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="I28" s="32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="47" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="103"/>
-      <c r="B29" s="103"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="41">
-        <v>5</v>
-      </c>
-      <c r="G29" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="47" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="105">
-        <v>7</v>
-      </c>
-      <c r="B30" s="103"/>
-      <c r="C30" s="103" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="104" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="104" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" s="41">
-        <v>1</v>
-      </c>
-      <c r="G30" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="90"/>
-      <c r="B31" s="103"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="41">
-        <v>2</v>
-      </c>
-      <c r="G31" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="90"/>
-      <c r="B32" s="103"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="41">
-        <v>3</v>
-      </c>
-      <c r="G32" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="47" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="90"/>
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="41">
-        <v>4</v>
-      </c>
-      <c r="G33" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-    </row>
-    <row r="34" spans="1:9" s="47" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="97"/>
-      <c r="B34" s="103"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="41">
-        <v>5</v>
-      </c>
-      <c r="G34" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="47" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="103">
-        <v>8</v>
-      </c>
-      <c r="B35" s="103"/>
-      <c r="C35" s="103" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="104" t="s">
-        <v>93</v>
-      </c>
-      <c r="E35" s="104" t="s">
-        <v>61</v>
-      </c>
-      <c r="F35" s="41">
-        <v>1</v>
-      </c>
-      <c r="G35" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="103"/>
-      <c r="B36" s="103"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="41">
-        <v>2</v>
-      </c>
-      <c r="G36" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="103"/>
-      <c r="B37" s="103"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="41">
-        <v>3</v>
-      </c>
-      <c r="G37" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="47" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="103"/>
-      <c r="B38" s="103"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="41">
-        <v>4</v>
-      </c>
-      <c r="G38" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="H38" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="I38" s="32"/>
-    </row>
-    <row r="39" spans="1:9" s="47" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="103"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="41">
-        <v>5</v>
-      </c>
-      <c r="G39" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="101" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="101"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="102"/>
-      <c r="I40" s="102"/>
-    </row>
-    <row r="41" spans="1:9" s="47" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="85">
-        <v>9</v>
-      </c>
-      <c r="B41" s="87" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="89" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" s="92" t="s">
-        <v>76</v>
-      </c>
-      <c r="E41" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="F41" s="48">
-        <v>1</v>
-      </c>
-      <c r="G41" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="86"/>
-      <c r="B42" s="88"/>
-      <c r="C42" s="90"/>
-      <c r="D42" s="93"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="48">
-        <v>2</v>
-      </c>
-      <c r="G42" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="47" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="96"/>
-      <c r="B43" s="95"/>
-      <c r="C43" s="97"/>
-      <c r="D43" s="94"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="42">
-        <v>3</v>
-      </c>
-      <c r="G43" s="100" t="s">
-        <v>60</v>
-      </c>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43" t="s">
-        <v>77</v>
-      </c>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" s="104"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="E35:E39"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="B25:B39"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="B5:B16"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="E21:E24"/>
+  <mergeCells count="31">
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="J5:J8"/>
+    <mergeCell ref="J9:J12"/>
+    <mergeCell ref="J13:J16"/>
+    <mergeCell ref="J17:J20"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="A21:G21"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="D5:D8"/>
@@ -3033,11 +2651,13 @@
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="C17:C20"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="B5:B16"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_ TC_Tìmkiếmnhânsự .xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_ TC_Tìmkiếmnhânsự .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\module1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC908C45-237E-4B42-88E9-71294133A77C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862A3186-D5B8-469A-AB80-BCB60AC29A64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" activeTab="3" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="90">
   <si>
     <t>Author</t>
   </si>
@@ -194,9 +194,6 @@
     <t>1.1</t>
   </si>
   <si>
-    <t>Follow new version of template</t>
-  </si>
-  <si>
     <t>GUI</t>
   </si>
   <si>
@@ -219,9 +216,6 @@
   </si>
   <si>
     <t>1.2</t>
-  </si>
-  <si>
-    <t>Fix some defects in TCs</t>
   </si>
   <si>
     <t xml:space="preserve">Trịnh Như Phương </t>
@@ -342,6 +336,9 @@
   </si>
   <si>
     <t xml:space="preserve">Kết quả tìm kiếm được hiển thị phải phù hợp với từ khóa tìm kiếm </t>
+  </si>
+  <si>
+    <t>complete version</t>
   </si>
 </sst>
 </file>
@@ -1150,6 +1147,12 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1255,22 +1258,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1285,27 +1288,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1314,9 +1314,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1641,8 +1638,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:E20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1657,31 +1654,31 @@
   <sheetData>
     <row r="1" spans="2:5" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
     </row>
     <row r="3" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
+      <c r="B3" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
@@ -1705,7 +1702,7 @@
         <v>43832</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>25</v>
@@ -1719,7 +1716,7 @@
         <v>43896</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>27</v>
@@ -1729,25 +1726,25 @@
       <c r="B9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="12">
+        <v>43953</v>
+      </c>
       <c r="D9" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="8" t="s">
         <v>53</v>
       </c>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
@@ -1756,21 +1753,21 @@
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="63"/>
+      <c r="B12" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="65"/>
     </row>
     <row r="13" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="62"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
@@ -1779,40 +1776,40 @@
       <c r="C15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="54"/>
+      <c r="E15" s="56"/>
     </row>
     <row r="16" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58"/>
     </row>
     <row r="17" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="58"/>
     </row>
     <row r="19" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
     </row>
     <row r="20" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1851,10 +1848,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C634FC7-125A-4085-B576-D3E7F0759EE5}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1871,80 +1868,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="78"/>
       <c r="E2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="75" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
+      <c r="F2" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="81" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="82"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="83" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="84"/>
       <c r="E3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="86"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="67">
+      <c r="B4" s="68"/>
+      <c r="C4" s="69">
         <v>43811</v>
       </c>
-      <c r="D4" s="68"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="67" t="s">
+      <c r="F4" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="70"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
     </row>
     <row r="8" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
@@ -1960,7 +1957,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>33</v>
@@ -1977,11 +1974,11 @@
         <v>1</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>36</v>
@@ -1997,11 +1994,11 @@
         <v>2</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>36</v>
@@ -2014,48 +2011,40 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="16"/>
+        <v>66</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>70</v>
+      </c>
       <c r="E11" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" s="33"/>
       <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27">
-        <v>5</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>16</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="33"/>
       <c r="H12" s="17"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27">
-        <v>6</v>
-      </c>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
       <c r="B13" s="38"/>
       <c r="C13" s="34"/>
       <c r="D13" s="35"/>
@@ -2063,16 +2052,6 @@
       <c r="F13" s="18"/>
       <c r="G13" s="33"/>
       <c r="H13" s="17"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2098,19 +2077,19 @@
           <x14:formula1>
             <xm:f>Sheet2!$G$3:$G$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E9:E14</xm:sqref>
+          <xm:sqref>E9:E13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0669D02E-8B0A-448F-BAD2-6D1A700CE8C7}">
           <x14:formula1>
             <xm:f>Sheet2!$D$3:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>G9:G14</xm:sqref>
+          <xm:sqref>G9:G13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C345C894-9E54-44FF-8227-82A9A55946F3}">
           <x14:formula1>
             <xm:f>Sheet2!$A$3:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F9:F14</xm:sqref>
+          <xm:sqref>F9:F13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2123,8 +2102,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D22" sqref="D22:D24"/>
     </sheetView>
   </sheetViews>
@@ -2144,7 +2123,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="98" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B1" s="98"/>
       <c r="C1" s="98"/>
@@ -2169,13 +2148,13 @@
         <v>31</v>
       </c>
       <c r="C3" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="24" t="s">
         <v>47</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>48</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="24" t="s">
@@ -2193,7 +2172,7 @@
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="97" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B4" s="97"/>
       <c r="C4" s="97"/>
@@ -2203,349 +2182,349 @@
       <c r="G4" s="97"/>
       <c r="H4" s="97"/>
       <c r="I4" s="97"/>
-      <c r="J4" s="105"/>
+      <c r="J4" s="51"/>
     </row>
     <row r="5" spans="1:10" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="87">
         <v>1</v>
       </c>
       <c r="B5" s="90" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="91" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="91" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="D5" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="93" t="s">
+        <v>59</v>
       </c>
       <c r="F5" s="47">
         <v>1</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H5" s="39"/>
       <c r="I5" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" s="102" t="s">
-        <v>89</v>
+        <v>55</v>
+      </c>
+      <c r="J5" s="103" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="88"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
       <c r="F6" s="47">
         <v>2</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H6" s="43"/>
       <c r="I6" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" s="103"/>
+        <v>57</v>
+      </c>
+      <c r="J6" s="104"/>
     </row>
     <row r="7" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="88"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
       <c r="F7" s="47">
         <v>3</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H7" s="43"/>
       <c r="I7" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="J7" s="103"/>
+        <v>77</v>
+      </c>
+      <c r="J7" s="104"/>
     </row>
     <row r="8" spans="1:10" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="89"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
       <c r="F8" s="47">
         <v>4</v>
       </c>
       <c r="G8" s="48" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H8" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="J8" s="104"/>
+      <c r="J8" s="105"/>
     </row>
     <row r="9" spans="1:10" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="87">
         <v>2</v>
       </c>
-      <c r="B9" s="85"/>
+      <c r="B9" s="91"/>
       <c r="C9" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="91" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="91" t="s">
-        <v>61</v>
+        <v>65</v>
+      </c>
+      <c r="D9" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="93" t="s">
+        <v>59</v>
       </c>
       <c r="F9" s="47">
         <v>1</v>
       </c>
       <c r="G9" s="44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H9" s="39"/>
       <c r="I9" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="102" t="s">
-        <v>89</v>
+        <v>55</v>
+      </c>
+      <c r="J9" s="103" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="88"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
       <c r="F10" s="47">
         <v>2</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H10" s="43"/>
       <c r="I10" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="103"/>
+        <v>57</v>
+      </c>
+      <c r="J10" s="104"/>
     </row>
     <row r="11" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="88"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
       <c r="F11" s="47">
         <v>3</v>
       </c>
       <c r="G11" s="45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H11" s="43"/>
       <c r="I11" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" s="103"/>
+        <v>77</v>
+      </c>
+      <c r="J11" s="104"/>
     </row>
     <row r="12" spans="1:10" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="89"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
       <c r="F12" s="47">
         <v>4</v>
       </c>
       <c r="G12" s="48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="J12" s="104"/>
+        <v>80</v>
+      </c>
+      <c r="J12" s="105"/>
     </row>
     <row r="13" spans="1:10" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="87">
         <v>3</v>
       </c>
-      <c r="B13" s="85"/>
+      <c r="B13" s="91"/>
       <c r="C13" s="90" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="91" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="91" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="D13" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="93" t="s">
+        <v>59</v>
       </c>
       <c r="F13" s="47">
         <v>1</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H13" s="39"/>
       <c r="I13" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="102" t="s">
-        <v>89</v>
+        <v>55</v>
+      </c>
+      <c r="J13" s="103" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="88"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
       <c r="F14" s="47">
         <v>2</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H14" s="43"/>
       <c r="I14" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="J14" s="103"/>
+        <v>57</v>
+      </c>
+      <c r="J14" s="104"/>
     </row>
     <row r="15" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="88"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
       <c r="F15" s="47">
         <v>3</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H15" s="43"/>
       <c r="I15" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="J15" s="103"/>
+        <v>77</v>
+      </c>
+      <c r="J15" s="104"/>
     </row>
     <row r="16" spans="1:10" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="89"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
       <c r="F16" s="47">
         <v>4</v>
       </c>
       <c r="G16" s="48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H16" s="42" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I16" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="J16" s="104"/>
+        <v>84</v>
+      </c>
+      <c r="J16" s="105"/>
     </row>
     <row r="17" spans="1:10" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="87">
         <v>4</v>
       </c>
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="91" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="91" t="s">
-        <v>61</v>
+      <c r="D17" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="93" t="s">
+        <v>59</v>
       </c>
       <c r="F17" s="47">
         <v>1</v>
       </c>
       <c r="G17" s="44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="J17" s="102" t="s">
-        <v>89</v>
+        <v>55</v>
+      </c>
+      <c r="J17" s="103" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="88"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
       <c r="F18" s="47">
         <v>2</v>
       </c>
       <c r="G18" s="45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H18" s="43"/>
       <c r="I18" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="J18" s="103"/>
+        <v>57</v>
+      </c>
+      <c r="J18" s="104"/>
     </row>
     <row r="19" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="88"/>
-      <c r="B19" s="96"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
       <c r="F19" s="47">
         <v>3</v>
       </c>
       <c r="G19" s="45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H19" s="43"/>
       <c r="I19" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="J19" s="103"/>
+        <v>77</v>
+      </c>
+      <c r="J19" s="104"/>
     </row>
     <row r="20" spans="1:10" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="89"/>
-      <c r="B20" s="100"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
       <c r="F20" s="47">
         <v>4</v>
       </c>
       <c r="G20" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="H20" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="I20" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="J20" s="104"/>
+      <c r="J20" s="105"/>
     </row>
     <row r="21" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="99" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" s="99"/>
       <c r="C21" s="99"/>
@@ -2555,7 +2534,7 @@
       <c r="G21" s="99"/>
       <c r="H21" s="49"/>
       <c r="I21" s="49"/>
-      <c r="J21" s="101">
+      <c r="J21" s="50">
         <v>1</v>
       </c>
     </row>
@@ -2563,67 +2542,67 @@
       <c r="A22" s="87">
         <v>9</v>
       </c>
-      <c r="B22" s="95" t="s">
+      <c r="B22" s="100" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="90" t="s">
+      <c r="D22" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="91" t="s">
-        <v>61</v>
+      <c r="E22" s="93" t="s">
+        <v>59</v>
       </c>
       <c r="F22" s="47">
         <v>1</v>
       </c>
       <c r="G22" s="44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="J22" s="102" t="s">
-        <v>89</v>
+        <v>55</v>
+      </c>
+      <c r="J22" s="103" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="88"/>
-      <c r="B23" s="96"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
       <c r="F23" s="47">
         <v>2</v>
       </c>
       <c r="G23" s="45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H23" s="43"/>
       <c r="I23" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="J23" s="103"/>
+        <v>57</v>
+      </c>
+      <c r="J23" s="104"/>
     </row>
     <row r="24" spans="1:10" s="46" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="89"/>
-      <c r="B24" s="100"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
       <c r="F24" s="41">
         <v>3</v>
       </c>
       <c r="G24" s="48" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H24" s="42"/>
       <c r="I24" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="J24" s="104"/>
+        <v>71</v>
+      </c>
+      <c r="J24" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="31">
